--- a/data/trans_dic/P55$nadie-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P55$nadie-Estudios-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.06490322460119097</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.03952361526571477</v>
+        <v>0.03952361526571478</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.05837472227378693</v>
@@ -697,7 +697,7 @@
         <v>0.05095328845484055</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.03746352574353859</v>
+        <v>0.03746352574353858</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.009466066953041924</v>
+        <v>0.009886407801051277</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01657602294111482</v>
+        <v>0.01649690815200452</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01374439362107564</v>
+        <v>0.0131237991389023</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.03863003920359977</v>
+        <v>0.04090340565818688</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.009096546511197253</v>
+        <v>0.0115541393649747</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.03775438627996335</v>
+        <v>0.03361411646819112</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.02523107101033491</v>
+        <v>0.02481847514879012</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.03625436450752204</v>
+        <v>0.03479636305491277</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.01660382796462919</v>
+        <v>0.01717947842240344</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.02944884773904639</v>
+        <v>0.02804811112228046</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.02509436301292977</v>
+        <v>0.02642009986017864</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.08846487407091504</v>
+        <v>0.09138917009728383</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1197602535461237</v>
+        <v>0.121201466380909</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.07312116369852142</v>
+        <v>0.06719634193924866</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.06746559228135889</v>
+        <v>0.06895512723331106</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1120173828796156</v>
+        <v>0.112725241215609</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.05162331865040294</v>
+        <v>0.05381544338183197</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1133747416401361</v>
+        <v>0.1083914179881818</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.05811287410676273</v>
+        <v>0.05922319229251834</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.0913782003698288</v>
+        <v>0.08925525944461486</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.06449195310718368</v>
+        <v>0.06115418772495029</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.08047839647679185</v>
+        <v>0.08499803893871342</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.05349023043800675</v>
+        <v>0.05532963568423385</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.165685210119169</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.05677900329853371</v>
+        <v>0.05677900329853372</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.09756150947273134</v>
@@ -833,7 +833,7 @@
         <v>0.1150918937092821</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.06632451987813019</v>
+        <v>0.06632451987813021</v>
       </c>
     </row>
     <row r="8">
@@ -849,25 +849,25 @@
       <c r="D8" s="5" t="inlineStr"/>
       <c r="E8" s="5" t="inlineStr"/>
       <c r="F8" s="5" t="n">
-        <v>0.02886400399932691</v>
+        <v>0.02706825821860103</v>
       </c>
       <c r="G8" s="5" t="inlineStr"/>
       <c r="H8" s="5" t="inlineStr"/>
       <c r="I8" s="5" t="n">
-        <v>0.06611685373765556</v>
+        <v>0.0829162156764227</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.02566880930267351</v>
+        <v>0.02112357671146353</v>
       </c>
       <c r="K8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L8" s="5" t="inlineStr"/>
       <c r="M8" s="5" t="n">
-        <v>0.04575953090581605</v>
+        <v>0.04624753345326049</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.03367095499130703</v>
+        <v>0.03154478746488545</v>
       </c>
     </row>
     <row r="9">
@@ -878,30 +878,30 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.474108172060955</v>
+        <v>0.5126944167905874</v>
       </c>
       <c r="D9" s="5" t="inlineStr"/>
       <c r="E9" s="5" t="inlineStr"/>
       <c r="F9" s="5" t="n">
-        <v>0.1645226479903435</v>
+        <v>0.1631154126942217</v>
       </c>
       <c r="G9" s="5" t="inlineStr"/>
       <c r="H9" s="5" t="inlineStr"/>
       <c r="I9" s="5" t="n">
-        <v>0.3049915192561571</v>
+        <v>0.3127844337407693</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1214033810111087</v>
+        <v>0.1170904332323099</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2935566421482711</v>
+        <v>0.2984239340317592</v>
       </c>
       <c r="L9" s="5" t="inlineStr"/>
       <c r="M9" s="5" t="n">
-        <v>0.2232808049908266</v>
+        <v>0.2226561813893862</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1197439545629495</v>
+        <v>0.1119865974518924</v>
       </c>
     </row>
     <row r="10">
@@ -963,7 +963,7 @@
       <c r="D11" s="5" t="inlineStr"/>
       <c r="E11" s="5" t="inlineStr"/>
       <c r="F11" s="5" t="n">
-        <v>0.03470013831488784</v>
+        <v>0.03587237383425819</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
@@ -971,7 +971,7 @@
       <c r="H11" s="5" t="inlineStr"/>
       <c r="I11" s="5" t="inlineStr"/>
       <c r="J11" s="5" t="n">
-        <v>0.03663558964165219</v>
+        <v>0.03452253517544466</v>
       </c>
       <c r="K11" s="5" t="n">
         <v>0</v>
@@ -979,7 +979,7 @@
       <c r="L11" s="5" t="inlineStr"/>
       <c r="M11" s="5" t="inlineStr"/>
       <c r="N11" s="5" t="n">
-        <v>0.0497110463894487</v>
+        <v>0.04130140675616507</v>
       </c>
     </row>
     <row r="12">
@@ -993,23 +993,23 @@
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="inlineStr"/>
       <c r="F12" s="5" t="n">
-        <v>0.3044303082216796</v>
+        <v>0.3126415072795424</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4094258985888871</v>
+        <v>0.3703509093958045</v>
       </c>
       <c r="H12" s="5" t="inlineStr"/>
       <c r="I12" s="5" t="inlineStr"/>
       <c r="J12" s="5" t="n">
-        <v>0.3029638019550241</v>
+        <v>0.2713045205057053</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1996596850823223</v>
+        <v>0.228870020215012</v>
       </c>
       <c r="L12" s="5" t="inlineStr"/>
       <c r="M12" s="5" t="inlineStr"/>
       <c r="N12" s="5" t="n">
-        <v>0.2440353300338664</v>
+        <v>0.2276255840599848</v>
       </c>
     </row>
     <row r="13">
@@ -1057,7 +1057,7 @@
         <v>0.06175447496768832</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.04860875260114681</v>
+        <v>0.0486087526011468</v>
       </c>
     </row>
     <row r="14">
@@ -1068,40 +1068,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0199091249666376</v>
+        <v>0.0211734986049134</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01377389946623971</v>
+        <v>0.01358335476576408</v>
       </c>
       <c r="E14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02984278689090332</v>
+        <v>0.03069821990783284</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.03984417408726114</v>
+        <v>0.03668331944547178</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.00845818157713296</v>
+        <v>0.008290105873450202</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.05258541567916753</v>
+        <v>0.0531969080621867</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.03061355269387741</v>
+        <v>0.0323102235992548</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.0370109929040582</v>
+        <v>0.03952450256551555</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.01551845269097915</v>
+        <v>0.01530049892190988</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.03955809089055019</v>
+        <v>0.03998281215759915</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.03618647740940543</v>
+        <v>0.03738467542734013</v>
       </c>
     </row>
     <row r="15">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1050816514254934</v>
+        <v>0.1131137808070915</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1021107499601447</v>
+        <v>0.1078470775490848</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.05011038817406768</v>
+        <v>0.04913859309142663</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.0944719066575021</v>
+        <v>0.08767082095517295</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1081398890618986</v>
+        <v>0.1018783828858286</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.04644969416169049</v>
+        <v>0.04679747845066812</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1286937978937972</v>
+        <v>0.1264950229359623</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.06306233082974645</v>
+        <v>0.06537175689301934</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.0899787508579853</v>
+        <v>0.09151907305314388</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.05482312079233326</v>
+        <v>0.05171630810431447</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.09216449371671438</v>
+        <v>0.09273371805964825</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.06597090281045367</v>
+        <v>0.06549811482212907</v>
       </c>
     </row>
     <row r="16">
@@ -1415,40 +1415,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>975</v>
+        <v>1019</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>2057</v>
+        <v>2048</v>
       </c>
       <c r="E6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1426</v>
+        <v>1362</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>7952</v>
+        <v>8420</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2282</v>
+        <v>2898</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>7874</v>
+        <v>7011</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>6984</v>
+        <v>6870</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>11198</v>
+        <v>10748</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>6226</v>
+        <v>6442</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>8894</v>
+        <v>8471</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>9551</v>
+        <v>10055</v>
       </c>
     </row>
     <row r="7">
@@ -1459,40 +1459,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>9114</v>
+        <v>9415</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>14865</v>
+        <v>15044</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>6834</v>
+        <v>6280</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>7001</v>
+        <v>7156</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>23059</v>
+        <v>23205</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>12949</v>
+        <v>13499</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>23646</v>
+        <v>22606</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>16086</v>
+        <v>16394</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>28225</v>
+        <v>27569</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>24182</v>
+        <v>22931</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>24306</v>
+        <v>25672</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>20358</v>
+        <v>21058</v>
       </c>
     </row>
     <row r="8">
@@ -1600,25 +1600,25 @@
       <c r="D10" s="6" t="inlineStr"/>
       <c r="E10" s="6" t="inlineStr"/>
       <c r="F10" s="6" t="n">
-        <v>1366</v>
+        <v>1281</v>
       </c>
       <c r="G10" s="6" t="inlineStr"/>
       <c r="H10" s="6" t="inlineStr"/>
       <c r="I10" s="6" t="n">
-        <v>3441</v>
+        <v>4315</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1608</v>
+        <v>1323</v>
       </c>
       <c r="K10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L10" s="6" t="inlineStr"/>
       <c r="M10" s="6" t="n">
-        <v>3428</v>
+        <v>3465</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>3703</v>
+        <v>3469</v>
       </c>
     </row>
     <row r="11">
@@ -1629,30 +1629,30 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>6727</v>
+        <v>7274</v>
       </c>
       <c r="D11" s="6" t="inlineStr"/>
       <c r="E11" s="6" t="inlineStr"/>
       <c r="F11" s="6" t="n">
-        <v>7786</v>
+        <v>7719</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="inlineStr"/>
       <c r="I11" s="6" t="n">
-        <v>15872</v>
+        <v>16277</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>7606</v>
+        <v>7336</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>8128</v>
+        <v>8262</v>
       </c>
       <c r="L11" s="6" t="inlineStr"/>
       <c r="M11" s="6" t="n">
-        <v>16728</v>
+        <v>16681</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>13169</v>
+        <v>12316</v>
       </c>
     </row>
     <row r="12">
@@ -1758,7 +1758,7 @@
       <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="inlineStr"/>
       <c r="F14" s="6" t="n">
-        <v>575</v>
+        <v>595</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
@@ -1766,7 +1766,7 @@
       <c r="H14" s="6" t="inlineStr"/>
       <c r="I14" s="6" t="inlineStr"/>
       <c r="J14" s="6" t="n">
-        <v>577</v>
+        <v>544</v>
       </c>
       <c r="K14" s="6" t="n">
         <v>0</v>
@@ -1774,7 +1774,7 @@
       <c r="L14" s="6" t="inlineStr"/>
       <c r="M14" s="6" t="inlineStr"/>
       <c r="N14" s="6" t="n">
-        <v>1607</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="15">
@@ -1788,23 +1788,23 @@
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="n">
-        <v>5045</v>
+        <v>5181</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>4738</v>
+        <v>4286</v>
       </c>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="inlineStr"/>
       <c r="J15" s="6" t="n">
-        <v>4770</v>
+        <v>4271</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>4180</v>
+        <v>4792</v>
       </c>
       <c r="L15" s="6" t="inlineStr"/>
       <c r="M15" s="6" t="inlineStr"/>
       <c r="N15" s="6" t="n">
-        <v>7886</v>
+        <v>7356</v>
       </c>
     </row>
     <row r="16">
@@ -1907,40 +1907,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>2520</v>
+        <v>2680</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>2013</v>
+        <v>1985</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>5004</v>
+        <v>5147</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>9201</v>
+        <v>8471</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2338</v>
+        <v>2292</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>14059</v>
+        <v>14223</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>10874</v>
+        <v>11477</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>13231</v>
+        <v>14130</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>6558</v>
+        <v>6466</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>15381</v>
+        <v>15546</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>18921</v>
+        <v>19548</v>
       </c>
     </row>
     <row r="19">
@@ -1951,40 +1951,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>13301</v>
+        <v>14318</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>14925</v>
+        <v>15764</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>6086</v>
+        <v>5968</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>15840</v>
+        <v>14699</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>24972</v>
+        <v>23526</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>12840</v>
+        <v>12936</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>34408</v>
+        <v>33820</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>22400</v>
+        <v>23221</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>32167</v>
+        <v>32718</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>23168</v>
+        <v>21855</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>35835</v>
+        <v>36057</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>34495</v>
+        <v>34247</v>
       </c>
     </row>
     <row r="20">
